--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>7.288845540350142</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>4.250403441759332</v>
+        <v>10.06916370210014</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-4.863612052120669</v>
+        <v>-20.40984652067478</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-7.734705730272207</v>
+        <v>-33.45158075171641</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>4.971219206652289</v>
+        <v>5.331710924091837</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>8.339224397982537</v>
+        <v>10.84949786623359</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>7.811215241305947</v>
+        <v>11.04982736891558</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>4.031704512073442</v>
+        <v>9.589921161142879</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>2.445874489688427</v>
+        <v>4.748210439985256</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.086193663490992</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.2205946859888952</v>
+        <v>-2.313034291448757</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.019823939274001</v>
+        <v>-7.020874871669158</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.795578952966207</v>
+        <v>3.711391384148</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>5.994935783457533</v>
+        <v>0.6610955960690834</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>3.867019351064327</v>
+        <v>3.860244074450181</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>4.039479729740392</v>
+        <v>3.254220449867029</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>4.418912321243895</v>
+        <v>2.370939381494686</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>5.169567952506848</v>
+        <v>3.967543131851214</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.558300350845723</v>
+        <v>4.421855465610292</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>4.85073564559062</v>
+        <v>5.260364862099642</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>5.917332732513647</v>
+        <v>3.320585727896552</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>5.315252867185194</v>
+        <v>-4.098213472638578</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>4.922954850906991</v>
+        <v>1.782333336406405</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>7.028919462121941</v>
+        <v>4.060401000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.5400539526627224</v>
+        <v>-4.477718018907028</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-6.088611755952167</v>
+        <v>-11.83522404790002</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.377342603484732</v>
+        <v>6.317691071509768</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>4.602446168435437</v>
+        <v>4.613033063261129</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.745367215598259</v>
+        <v>3.79744344971964</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.731000985331101</v>
+        <v>3.703837953294542</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.8012998430370399</v>
+        <v>0.4998689793225486</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.3471506893650611</v>
+        <v>-0.08221002454066317</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.04127301632155245</v>
+        <v>0.1967053802870877</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>5.940231423416042</v>
+        <v>6.289039804796182</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.1536935860888322</v>
+        <v>-2.056549539789942</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-1.343575587991863</v>
+        <v>-0.3884660724497446</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>6.317691071509768</v>
+        <v>6.928818429977701</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>4.613033063261129</v>
+        <v>7.603837152144077</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>3.79744344971964</v>
+        <v>1.316649728677288</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.703837953294542</v>
+        <v>-8.227322176512519</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.4998689793225486</v>
+        <v>0.8562564928550565</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.08221002454066317</v>
+        <v>1.69719863895359</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.1967053802870877</v>
+        <v>-0.1644433828108749</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>6.289039804796182</v>
+        <v>4.412091139052166</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-2.056549539789942</v>
+        <v>0.602228449891351</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.3884660724497446</v>
+        <v>13.57938250040038</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>7.288845540350142</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>10.06916370210014</v>
+        <v>10.06916370210016</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-20.40984652067478</v>
+        <v>-20.40984652067477</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-33.45158075171641</v>
+        <v>-33.45158075171639</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +454,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>5.331710924091837</v>
+        <v>5.331710924091815</v>
       </c>
       <c r="D4">
         <v>2011</v>
@@ -474,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>11.04982736891558</v>
+        <v>11.04982736891555</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>9.589921161142879</v>
+        <v>9.5899211611429</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,7 +494,7 @@
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>7.086193663490992</v>
+        <v>7.086193663491014</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-2.313034291448757</v>
+        <v>-2.313034291448768</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -542,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>3.860244074450181</v>
+        <v>3.860244074450203</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>3.254220449867029</v>
+        <v>3.254220449867051</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -576,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.421855465610292</v>
+        <v>4.421855465610269</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>5.260364862099642</v>
+        <v>5.26036486209962</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.320585727896552</v>
+        <v>3.320585727896574</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>-4.098213472638578</v>
+        <v>-4.09821347263859</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,7 +607,7 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.782333336406405</v>
+        <v>1.782333336406383</v>
       </c>
       <c r="D13">
         <v>2020</v>
@@ -633,7 +630,7 @@
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-11.83522404790002</v>
+        <v>-11.8352240479</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>6.928818429977701</v>
+        <v>6.928818429977723</v>
       </c>
       <c r="D15">
         <v>2022</v>
@@ -678,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.8562564928550565</v>
+        <v>0.8562564928550342</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.69719863895359</v>
+        <v>1.697198638953612</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.1644433828108749</v>
+        <v>-0.1644433828108638</v>
       </c>
       <c r="D18">
         <v>2025</v>
